--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>注册</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>获取用户好友</t>
   </si>
 </sst>
 </file>
@@ -246,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,20 +707,20 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +728,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1248,15 +1269,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="20" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="9.81818181818182" style="1"/>
+    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="20" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1330,7 +1353,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1342,7 +1365,50 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -720,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +732,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -1282,7 +1288,7 @@
     <col min="3" max="20" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1301,9 @@
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="3:20">
+    <row r="2" spans="3:21">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1351,9 +1358,12 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="U2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1368,7 +1378,7 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1378,16 +1388,22 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1399,9 +1415,10 @@
       <c r="O6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1413,7 +1430,7 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -77,6 +77,9 @@
     <t>文件/信息</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>0000</t>
   </si>
   <si>
@@ -105,6 +108,27 @@
   </si>
   <si>
     <t>获取用户好友</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>添加好友</t>
+  </si>
+  <si>
+    <t>两个</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>处理请求</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>添加好友的通知</t>
   </si>
 </sst>
 </file>
@@ -720,24 +744,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,20 +1305,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" style="1"/>
     <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
     <col min="3" max="20" width="9.81818181818182" style="1"/>
+    <col min="21" max="22" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1333,9 @@
         <v>3</v>
       </c>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="3:21">
+    <row r="2" spans="3:22">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1358,79 +1390,127 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
+      <c r="A3" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
+      <c r="A4" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+    <row r="6" spans="1:22">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>4</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
+      <c r="A7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="M1:V1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>添加好友的通知</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>两个用户的好友状态</t>
   </si>
 </sst>
 </file>
@@ -744,23 +750,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1305,21 +1299,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" style="1"/>
     <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="20" width="9.81818181818182" style="1"/>
-    <col min="21" max="22" width="9.81818181818182" style="2"/>
+    <col min="3" max="22" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,8 +1325,6 @@
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="3:22">
       <c r="C2" s="1" t="s">
@@ -1390,122 +1381,133 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="6"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="M6" s="3">
+      <c r="C6" s="2"/>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>4</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="6">
+      <c r="U6" s="3"/>
+      <c r="V6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>两个用户的好友状态</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>更新用户信息</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1509,6 +1515,19 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:L1"/>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>更新用户信息</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>获取用户间的聊天记录</t>
+  </si>
+  <si>
+    <t>聊天记录</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>发送消息</t>
   </si>
 </sst>
 </file>
@@ -1305,16 +1320,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" style="1"/>
-    <col min="2" max="2" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9090909090909" style="1" customWidth="1"/>
     <col min="3" max="22" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
@@ -1527,6 +1542,32 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>type</t>
   </si>
@@ -156,6 +156,93 @@
   </si>
   <si>
     <t>发送消息</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>获取群组信息</t>
+  </si>
+  <si>
+    <t>群ID</t>
+  </si>
+  <si>
+    <t>群名称</t>
+  </si>
+  <si>
+    <t>群主ID</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>获取群成员</t>
+  </si>
+  <si>
+    <t>群成员ID</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>获取群消息</t>
+  </si>
+  <si>
+    <t>发送者ID</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>创建群聊</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>邀请用户加入</t>
+  </si>
+  <si>
+    <t>邀请者ID</t>
+  </si>
+  <si>
+    <t>被邀请者ID</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>获取用户相关群聊信息</t>
+  </si>
+  <si>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>1:所在群聊</t>
+  </si>
+  <si>
+    <t>2:待处理群聊</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>处理群聊相关请求</t>
+  </si>
+  <si>
+    <t>1:同意入群</t>
+  </si>
+  <si>
+    <t>2:拒绝</t>
+  </si>
+  <si>
+    <t>3:退出</t>
   </si>
 </sst>
 </file>
@@ -321,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +764,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -689,89 +782,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +872,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1320,17 +1416,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" style="1"/>
     <col min="2" max="2" width="23.9090909090909" style="1" customWidth="1"/>
-    <col min="3" max="22" width="9.81818181818182" style="1"/>
+    <col min="3" max="5" width="9.81818181818182" style="1"/>
+    <col min="6" max="6" width="12.2727272727273" style="1" customWidth="1"/>
+    <col min="7" max="22" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1402,7 +1500,7 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -1410,7 +1508,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1422,10 +1520,10 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1436,7 +1534,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1450,7 +1548,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1472,13 +1570,13 @@
       <c r="T6" s="2">
         <v>4</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1488,7 +1586,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1499,7 +1597,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1510,7 +1608,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1520,7 +1618,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1531,7 +1629,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1544,7 +1642,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1558,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1568,6 +1666,140 @@
         <v>29</v>
       </c>
       <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>type</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>群主ID</t>
+  </si>
+  <si>
+    <t>群头像</t>
   </si>
   <si>
     <t>0013</t>
@@ -1419,7 +1422,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1686,36 +1689,39 @@
       <c r="O15" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="P15" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>9</v>
@@ -1723,13 +1729,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
@@ -1740,65 +1746,65 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>type</t>
   </si>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1740,6 +1740,9 @@
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="M18" s="3" t="s">
         <v>45</v>
       </c>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -227,10 +227,13 @@
     <t>操作码</t>
   </si>
   <si>
-    <t>1:所在群聊</t>
+    <t>1:等待验证</t>
   </si>
   <si>
     <t>2:待处理群聊</t>
+  </si>
+  <si>
+    <t>3:所在群聊</t>
   </si>
   <si>
     <t>0018</t>
@@ -1422,7 +1425,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1764,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -1783,13 +1786,16 @@
       <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
@@ -1801,13 +1807,13 @@
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>3:退出</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>获取用户与群聊状态码</t>
+  </si>
+  <si>
+    <t>状态码</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +890,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1422,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1514,7 +1526,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1529,7 +1541,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1540,7 +1552,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1554,7 +1566,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1582,7 +1594,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1592,7 +1604,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1603,7 +1615,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1614,7 +1626,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1624,7 +1636,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1635,7 +1647,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1648,7 +1660,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1662,7 +1674,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1674,7 +1686,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1697,7 +1709,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1711,7 +1723,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1731,7 +1743,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1746,12 +1758,10 @@
       <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1766,9 +1776,10 @@
       <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1789,9 +1800,12 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M20" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1814,6 +1828,23 @@
       </c>
       <c r="H21" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>状态码</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>发送群消息</t>
   </si>
 </sst>
 </file>
@@ -879,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +896,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1434,10 +1437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1526,7 +1529,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1541,7 +1544,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1552,7 +1555,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1566,7 +1569,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1604,7 +1607,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1615,7 +1618,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1626,7 +1629,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1636,7 +1639,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1647,7 +1650,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1660,7 +1663,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1686,7 +1689,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1743,7 +1746,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1758,10 +1761,10 @@
       <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1776,10 +1779,10 @@
       <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1805,7 +1808,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1831,7 +1834,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1845,6 +1848,23 @@
       </c>
       <c r="M22" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -264,6 +264,30 @@
   </si>
   <si>
     <t>发送群消息</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>获取消息列表</t>
+  </si>
+  <si>
+    <t>falg(0f)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -885,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,7 +919,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1437,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1521,7 +1551,7 @@
       <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -1529,7 +1559,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1541,10 +1571,10 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1555,7 +1585,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1569,13 +1599,14 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="M6" s="2">
         <v>1</v>
       </c>
@@ -1591,13 +1622,13 @@
       <c r="T6" s="2">
         <v>4</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1607,7 +1638,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1618,7 +1649,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1629,7 +1660,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1639,7 +1670,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1650,7 +1681,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1663,7 +1694,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1677,7 +1708,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1689,109 +1720,109 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1803,24 +1834,24 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1834,37 +1865,66 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/docs/server-proxy.xlsx
+++ b/docs/server-proxy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="10790"/>
+    <workbookView windowWidth="12630" windowHeight="7880"/>
   </bookViews>
   <sheets>
     <sheet name="server-proxy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -272,7 +272,7 @@
     <t>获取消息列表</t>
   </si>
   <si>
-    <t>falg(0f)</t>
+    <t>flag(0f)</t>
   </si>
   <si>
     <t>id</t>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>移除消息列表</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1927,6 +1936,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:L1"/>
